--- a/public/Collectivite.xlsx
+++ b/public/Collectivite.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10215"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moud/Desktop/Octa/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/moud/Desktop/web/catastrophe/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D239E92-682C-0A41-9008-66ED8B10815D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB363F1-F977-7B43-8FDE-D08DFFE01547}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{BD1969C9-1BA0-DC46-ABF9-1C3928746E44}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="379">
   <si>
     <t>Région</t>
   </si>
@@ -1152,6 +1152,24 @@
   </si>
   <si>
     <t>Péla</t>
+  </si>
+  <si>
+    <t>Conakry</t>
+  </si>
+  <si>
+    <t>Ratoma</t>
+  </si>
+  <si>
+    <t>Matoto</t>
+  </si>
+  <si>
+    <t>Matam</t>
+  </si>
+  <si>
+    <t>Kaloum</t>
+  </si>
+  <si>
+    <t>Dixinn</t>
   </si>
 </sst>
 </file>
@@ -1206,9 +1224,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1307,12 +1328,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1140A04-5A68-A648-BC5B-056B8B80D317}" name="Tableau2" displayName="Tableau2" ref="A1:C338" totalsRowShown="0" dataDxfId="0" dataCellStyle="Normal_Feuil1">
-  <autoFilter ref="A1:C338" xr:uid="{E1140A04-5A68-A648-BC5B-056B8B80D317}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E1140A04-5A68-A648-BC5B-056B8B80D317}" name="Tableau2" displayName="Tableau2" ref="A1:C343" totalsRowShown="0" dataDxfId="3" dataCellStyle="Normal_Feuil1">
+  <autoFilter ref="A1:C343" xr:uid="{E1140A04-5A68-A648-BC5B-056B8B80D317}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{4F4455B9-E818-3347-8F75-6CC4CF3397A5}" name="Région" dataDxfId="3" dataCellStyle="Normal_Feuil1"/>
-    <tableColumn id="2" xr3:uid="{2523834E-CEF9-F149-95AE-6B1D8B961624}" name="Préfecture" dataDxfId="2" dataCellStyle="Normal_Feuil1"/>
-    <tableColumn id="3" xr3:uid="{129936B2-472D-614B-AB1E-E9D2824D614A}" name="Sous-préfecture" dataDxfId="1" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="1" xr3:uid="{4F4455B9-E818-3347-8F75-6CC4CF3397A5}" name="Région" dataDxfId="2" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="2" xr3:uid="{2523834E-CEF9-F149-95AE-6B1D8B961624}" name="Préfecture" dataDxfId="1" dataCellStyle="Normal_Feuil1"/>
+    <tableColumn id="3" xr3:uid="{129936B2-472D-614B-AB1E-E9D2824D614A}" name="Sous-préfecture" dataDxfId="0" dataCellStyle="Normal_Feuil1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1615,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9EE6E21-1555-3F48-80C1-A925E3F5181B}">
-  <dimension ref="A1:C338"/>
+  <dimension ref="A1:C343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C338"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2036,69 +2057,69 @@
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>44</v>
+      <c r="A38" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>47</v>
+      <c r="A39" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>48</v>
+      <c r="A40" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>49</v>
+      <c r="A41" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>50</v>
+      <c r="A42" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -2109,7 +2130,7 @@
         <v>46</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
@@ -2120,7 +2141,7 @@
         <v>46</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
@@ -2131,7 +2152,7 @@
         <v>46</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
@@ -2142,7 +2163,7 @@
         <v>46</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
@@ -2150,10 +2171,10 @@
         <v>45</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -2161,10 +2182,10 @@
         <v>45</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
@@ -2172,10 +2193,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -2183,10 +2204,10 @@
         <v>45</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -2194,10 +2215,10 @@
         <v>45</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
@@ -2208,7 +2229,7 @@
         <v>56</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
@@ -2219,7 +2240,7 @@
         <v>56</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
@@ -2230,7 +2251,7 @@
         <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
@@ -2238,10 +2259,10 @@
         <v>45</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
@@ -2249,10 +2270,10 @@
         <v>45</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
@@ -2260,10 +2281,10 @@
         <v>45</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -2271,10 +2292,10 @@
         <v>45</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -2282,10 +2303,10 @@
         <v>45</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
@@ -2296,7 +2317,7 @@
         <v>45</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
@@ -2307,7 +2328,7 @@
         <v>45</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -2318,7 +2339,7 @@
         <v>45</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
@@ -2329,7 +2350,7 @@
         <v>45</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
@@ -2340,7 +2361,7 @@
         <v>45</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
@@ -2351,7 +2372,7 @@
         <v>45</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
@@ -2362,7 +2383,7 @@
         <v>45</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -2370,10 +2391,10 @@
         <v>45</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
@@ -2381,10 +2402,10 @@
         <v>45</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
@@ -2392,10 +2413,10 @@
         <v>45</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
@@ -2403,10 +2424,10 @@
         <v>45</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
@@ -2414,10 +2435,10 @@
         <v>45</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
@@ -2428,7 +2449,7 @@
         <v>77</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -2439,7 +2460,7 @@
         <v>77</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
@@ -2450,7 +2471,7 @@
         <v>77</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
@@ -2461,7 +2482,7 @@
         <v>77</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
@@ -2472,7 +2493,7 @@
         <v>77</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
@@ -2483,7 +2504,7 @@
         <v>77</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
@@ -2494,7 +2515,7 @@
         <v>77</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -2505,62 +2526,62 @@
         <v>77</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -2571,7 +2592,7 @@
         <v>91</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
@@ -2582,7 +2603,7 @@
         <v>91</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
@@ -2593,7 +2614,7 @@
         <v>91</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
@@ -2604,7 +2625,7 @@
         <v>91</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
@@ -2615,7 +2636,7 @@
         <v>91</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
@@ -2626,7 +2647,7 @@
         <v>91</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -2637,7 +2658,7 @@
         <v>91</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
@@ -2648,7 +2669,7 @@
         <v>91</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
@@ -2656,10 +2677,10 @@
         <v>91</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -2667,10 +2688,10 @@
         <v>91</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
@@ -2678,10 +2699,10 @@
         <v>91</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
@@ -2689,10 +2710,10 @@
         <v>91</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -2700,10 +2721,10 @@
         <v>91</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
@@ -2714,7 +2735,7 @@
         <v>105</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
@@ -2725,7 +2746,7 @@
         <v>105</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
@@ -2736,7 +2757,7 @@
         <v>105</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
@@ -2744,10 +2765,10 @@
         <v>91</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
@@ -2755,10 +2776,10 @@
         <v>91</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -2766,10 +2787,10 @@
         <v>91</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
@@ -2777,10 +2798,10 @@
         <v>91</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
@@ -2788,10 +2809,10 @@
         <v>91</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
@@ -2802,7 +2823,7 @@
         <v>114</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
@@ -2813,7 +2834,7 @@
         <v>114</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -2824,7 +2845,7 @@
         <v>114</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -2835,7 +2856,7 @@
         <v>114</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -2846,7 +2867,7 @@
         <v>114</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
@@ -2857,7 +2878,7 @@
         <v>114</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -2868,7 +2889,7 @@
         <v>114</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -2876,10 +2897,10 @@
         <v>91</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -2887,10 +2908,10 @@
         <v>91</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -2898,10 +2919,10 @@
         <v>91</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
@@ -2909,10 +2930,10 @@
         <v>91</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
@@ -2920,10 +2941,10 @@
         <v>91</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
@@ -2934,7 +2955,7 @@
         <v>127</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
@@ -2945,7 +2966,7 @@
         <v>127</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
@@ -2956,7 +2977,7 @@
         <v>127</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
@@ -2967,7 +2988,7 @@
         <v>127</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
@@ -2978,7 +2999,7 @@
         <v>127</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
@@ -2989,7 +3010,7 @@
         <v>127</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
@@ -3000,7 +3021,7 @@
         <v>127</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
@@ -3008,10 +3029,10 @@
         <v>91</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
@@ -3019,10 +3040,10 @@
         <v>91</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
@@ -3030,10 +3051,10 @@
         <v>91</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
@@ -3041,10 +3062,10 @@
         <v>91</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
@@ -3052,10 +3073,10 @@
         <v>91</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
@@ -3066,7 +3087,7 @@
         <v>140</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
@@ -3077,7 +3098,7 @@
         <v>140</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
@@ -3088,7 +3109,7 @@
         <v>140</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -3099,7 +3120,7 @@
         <v>140</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
@@ -3110,7 +3131,7 @@
         <v>140</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
@@ -3121,7 +3142,7 @@
         <v>140</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
@@ -3132,7 +3153,7 @@
         <v>140</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
@@ -3143,62 +3164,62 @@
         <v>140</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>155</v>
+        <v>140</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
@@ -3206,10 +3227,10 @@
         <v>154</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
@@ -3217,10 +3238,10 @@
         <v>154</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
@@ -3228,10 +3249,10 @@
         <v>154</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
@@ -3239,10 +3260,10 @@
         <v>154</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
@@ -3253,7 +3274,7 @@
         <v>160</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
@@ -3264,7 +3285,7 @@
         <v>160</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
@@ -3272,10 +3293,10 @@
         <v>154</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
@@ -3283,10 +3304,10 @@
         <v>154</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
@@ -3294,10 +3315,10 @@
         <v>154</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
@@ -3305,10 +3326,10 @@
         <v>154</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
@@ -3316,10 +3337,10 @@
         <v>154</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
@@ -3330,7 +3351,7 @@
         <v>168</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,7 +3362,7 @@
         <v>168</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.2">
@@ -3352,7 +3373,7 @@
         <v>168</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
@@ -3363,7 +3384,7 @@
         <v>168</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
@@ -3374,7 +3395,7 @@
         <v>168</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
@@ -3382,10 +3403,10 @@
         <v>154</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.2">
@@ -3393,10 +3414,10 @@
         <v>154</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.2">
@@ -3404,10 +3425,10 @@
         <v>154</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.2">
@@ -3415,10 +3436,10 @@
         <v>154</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.2">
@@ -3426,10 +3447,10 @@
         <v>154</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -3440,7 +3461,7 @@
         <v>154</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.2">
@@ -3451,7 +3472,7 @@
         <v>154</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,7 +3483,7 @@
         <v>154</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.2">
@@ -3473,7 +3494,7 @@
         <v>154</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.2">
@@ -3484,7 +3505,7 @@
         <v>154</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.2">
@@ -3492,10 +3513,10 @@
         <v>154</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.2">
@@ -3503,10 +3524,10 @@
         <v>154</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.2">
@@ -3514,10 +3535,10 @@
         <v>154</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.2">
@@ -3525,10 +3546,10 @@
         <v>154</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.2">
@@ -3536,10 +3557,10 @@
         <v>154</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>189</v>
+        <v>154</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.2">
@@ -3550,7 +3571,7 @@
         <v>189</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.2">
@@ -3561,7 +3582,7 @@
         <v>189</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.2">
@@ -3572,7 +3593,7 @@
         <v>189</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.2">
@@ -3583,7 +3604,7 @@
         <v>189</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.2">
@@ -3594,7 +3615,7 @@
         <v>189</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.2">
@@ -3605,7 +3626,7 @@
         <v>189</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.2">
@@ -3616,7 +3637,7 @@
         <v>189</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.2">
@@ -3627,7 +3648,7 @@
         <v>189</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.2">
@@ -3638,62 +3659,62 @@
         <v>189</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -3704,7 +3725,7 @@
         <v>205</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.2">
@@ -3712,10 +3733,10 @@
         <v>204</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.2">
@@ -3723,10 +3744,10 @@
         <v>204</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.2">
@@ -3734,10 +3755,10 @@
         <v>204</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
@@ -3745,10 +3766,10 @@
         <v>204</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
@@ -3756,10 +3777,10 @@
         <v>204</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
@@ -3770,7 +3791,7 @@
         <v>204</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.2">
@@ -3781,7 +3802,7 @@
         <v>204</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.2">
@@ -3792,7 +3813,7 @@
         <v>204</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.2">
@@ -3803,7 +3824,7 @@
         <v>204</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.2">
@@ -3814,7 +3835,7 @@
         <v>204</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.2">
@@ -3825,7 +3846,7 @@
         <v>204</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,7 +3857,7 @@
         <v>204</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,7 +3868,7 @@
         <v>204</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.2">
@@ -3855,10 +3876,10 @@
         <v>204</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.2">
@@ -3866,10 +3887,10 @@
         <v>204</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.2">
@@ -3877,10 +3898,10 @@
         <v>204</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.2">
@@ -3888,10 +3909,10 @@
         <v>204</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.2">
@@ -3899,10 +3920,10 @@
         <v>204</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -3913,7 +3934,7 @@
         <v>225</v>
       </c>
       <c r="C208" s="1" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.2">
@@ -3924,7 +3945,7 @@
         <v>225</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.2">
@@ -3935,7 +3956,7 @@
         <v>225</v>
       </c>
       <c r="C210" s="1" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.2">
@@ -3946,7 +3967,7 @@
         <v>225</v>
       </c>
       <c r="C211" s="1" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.2">
@@ -3957,7 +3978,7 @@
         <v>225</v>
       </c>
       <c r="C212" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.2">
@@ -3968,7 +3989,7 @@
         <v>225</v>
       </c>
       <c r="C213" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.2">
@@ -3976,10 +3997,10 @@
         <v>204</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C214" s="1" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.2">
@@ -3987,10 +4008,10 @@
         <v>204</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C215" s="1" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.2">
@@ -3998,10 +4019,10 @@
         <v>204</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C216" s="1" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.2">
@@ -4009,10 +4030,10 @@
         <v>204</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C217" s="1" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.2">
@@ -4020,10 +4041,10 @@
         <v>204</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="C218" s="1" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.2">
@@ -4034,7 +4055,7 @@
         <v>237</v>
       </c>
       <c r="C219" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.2">
@@ -4045,7 +4066,7 @@
         <v>237</v>
       </c>
       <c r="C220" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.2">
@@ -4056,7 +4077,7 @@
         <v>237</v>
       </c>
       <c r="C221" s="1" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.2">
@@ -4067,7 +4088,7 @@
         <v>237</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.2">
@@ -4078,7 +4099,7 @@
         <v>237</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.2">
@@ -4089,7 +4110,7 @@
         <v>237</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
@@ -4100,7 +4121,7 @@
         <v>237</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.2">
@@ -4111,7 +4132,7 @@
         <v>237</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.2">
@@ -4119,10 +4140,10 @@
         <v>204</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.2">
@@ -4130,10 +4151,10 @@
         <v>204</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
@@ -4141,10 +4162,10 @@
         <v>204</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.2">
@@ -4152,10 +4173,10 @@
         <v>204</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -4163,10 +4184,10 @@
         <v>204</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -4177,7 +4198,7 @@
         <v>251</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -4188,7 +4209,7 @@
         <v>251</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -4199,7 +4220,7 @@
         <v>251</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -4210,7 +4231,7 @@
         <v>251</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.2">
@@ -4221,62 +4242,62 @@
         <v>251</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A237" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A241" s="1" t="s">
-        <v>262</v>
+        <v>204</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="C241" s="1" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.2">
@@ -4287,7 +4308,7 @@
         <v>263</v>
       </c>
       <c r="C242" s="1" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.2">
@@ -4298,7 +4319,7 @@
         <v>263</v>
       </c>
       <c r="C243" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.2">
@@ -4309,7 +4330,7 @@
         <v>263</v>
       </c>
       <c r="C244" s="1" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.2">
@@ -4320,7 +4341,7 @@
         <v>263</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.2">
@@ -4331,7 +4352,7 @@
         <v>263</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
@@ -4339,10 +4360,10 @@
         <v>262</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
@@ -4350,10 +4371,10 @@
         <v>262</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
@@ -4361,10 +4382,10 @@
         <v>262</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
@@ -4372,10 +4393,10 @@
         <v>262</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
@@ -4383,10 +4404,10 @@
         <v>262</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
@@ -4397,7 +4418,7 @@
         <v>262</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
@@ -4408,7 +4429,7 @@
         <v>262</v>
       </c>
       <c r="C253" s="1" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
@@ -4419,7 +4440,7 @@
         <v>262</v>
       </c>
       <c r="C254" s="1" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
@@ -4430,7 +4451,7 @@
         <v>262</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
@@ -4441,7 +4462,7 @@
         <v>262</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
@@ -4452,7 +4473,7 @@
         <v>262</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
@@ -4463,7 +4484,7 @@
         <v>262</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
@@ -4474,7 +4495,7 @@
         <v>262</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
@@ -4485,7 +4506,7 @@
         <v>262</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
@@ -4493,10 +4514,10 @@
         <v>262</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
@@ -4504,10 +4525,10 @@
         <v>262</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
@@ -4515,10 +4536,10 @@
         <v>262</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
@@ -4526,10 +4547,10 @@
         <v>262</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
@@ -4537,10 +4558,10 @@
         <v>262</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>288</v>
+        <v>262</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
@@ -4551,7 +4572,7 @@
         <v>288</v>
       </c>
       <c r="C266" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
@@ -4562,7 +4583,7 @@
         <v>288</v>
       </c>
       <c r="C267" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
@@ -4573,7 +4594,7 @@
         <v>288</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
@@ -4584,7 +4605,7 @@
         <v>288</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
@@ -4595,7 +4616,7 @@
         <v>288</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
@@ -4606,7 +4627,7 @@
         <v>288</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
@@ -4617,62 +4638,62 @@
         <v>288</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A273" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>303</v>
+        <v>296</v>
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A274" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A275" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C275" s="1" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A276" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C276" s="1" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A277" s="1" t="s">
-        <v>301</v>
+        <v>262</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
@@ -4683,7 +4704,7 @@
         <v>302</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
@@ -4694,7 +4715,7 @@
         <v>302</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
@@ -4705,7 +4726,7 @@
         <v>302</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
@@ -4716,7 +4737,7 @@
         <v>302</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.2">
@@ -4727,7 +4748,7 @@
         <v>302</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.2">
@@ -4738,7 +4759,7 @@
         <v>302</v>
       </c>
       <c r="C283" s="1" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.2">
@@ -4749,7 +4770,7 @@
         <v>302</v>
       </c>
       <c r="C284" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.2">
@@ -4760,7 +4781,7 @@
         <v>302</v>
       </c>
       <c r="C285" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.2">
@@ -4771,7 +4792,7 @@
         <v>302</v>
       </c>
       <c r="C286" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.2">
@@ -4779,10 +4800,10 @@
         <v>301</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.2">
@@ -4790,10 +4811,10 @@
         <v>301</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.2">
@@ -4801,10 +4822,10 @@
         <v>301</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.2">
@@ -4812,10 +4833,10 @@
         <v>301</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.2">
@@ -4823,10 +4844,10 @@
         <v>301</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>317</v>
+        <v>302</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.2">
@@ -4837,7 +4858,7 @@
         <v>317</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="293" spans="1:3" x14ac:dyDescent="0.2">
@@ -4848,7 +4869,7 @@
         <v>317</v>
       </c>
       <c r="C293" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="294" spans="1:3" x14ac:dyDescent="0.2">
@@ -4859,7 +4880,7 @@
         <v>317</v>
       </c>
       <c r="C294" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.2">
@@ -4870,7 +4891,7 @@
         <v>317</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.2">
@@ -4881,7 +4902,7 @@
         <v>317</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.2">
@@ -4889,10 +4910,10 @@
         <v>301</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
     </row>
     <row r="298" spans="1:3" x14ac:dyDescent="0.2">
@@ -4900,10 +4921,10 @@
         <v>301</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
     </row>
     <row r="299" spans="1:3" x14ac:dyDescent="0.2">
@@ -4911,10 +4932,10 @@
         <v>301</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="300" spans="1:3" x14ac:dyDescent="0.2">
@@ -4922,10 +4943,10 @@
         <v>301</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
     </row>
     <row r="301" spans="1:3" x14ac:dyDescent="0.2">
@@ -4933,10 +4954,10 @@
         <v>301</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>328</v>
+        <v>317</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
     </row>
     <row r="302" spans="1:3" x14ac:dyDescent="0.2">
@@ -4947,7 +4968,7 @@
         <v>328</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
     </row>
     <row r="303" spans="1:3" x14ac:dyDescent="0.2">
@@ -4958,7 +4979,7 @@
         <v>328</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
     </row>
     <row r="304" spans="1:3" x14ac:dyDescent="0.2">
@@ -4969,7 +4990,7 @@
         <v>328</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
     </row>
     <row r="305" spans="1:3" x14ac:dyDescent="0.2">
@@ -4980,7 +5001,7 @@
         <v>328</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="306" spans="1:3" x14ac:dyDescent="0.2">
@@ -4988,10 +5009,10 @@
         <v>301</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
     </row>
     <row r="307" spans="1:3" x14ac:dyDescent="0.2">
@@ -4999,10 +5020,10 @@
         <v>301</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
     </row>
     <row r="308" spans="1:3" x14ac:dyDescent="0.2">
@@ -5010,10 +5031,10 @@
         <v>301</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
     </row>
     <row r="309" spans="1:3" x14ac:dyDescent="0.2">
@@ -5021,10 +5042,10 @@
         <v>301</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
     </row>
     <row r="310" spans="1:3" x14ac:dyDescent="0.2">
@@ -5032,10 +5053,10 @@
         <v>301</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="311" spans="1:3" x14ac:dyDescent="0.2">
@@ -5046,7 +5067,7 @@
         <v>338</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="312" spans="1:3" x14ac:dyDescent="0.2">
@@ -5057,7 +5078,7 @@
         <v>338</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="313" spans="1:3" x14ac:dyDescent="0.2">
@@ -5068,7 +5089,7 @@
         <v>338</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="314" spans="1:3" x14ac:dyDescent="0.2">
@@ -5079,7 +5100,7 @@
         <v>338</v>
       </c>
       <c r="C314" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="315" spans="1:3" x14ac:dyDescent="0.2">
@@ -5090,7 +5111,7 @@
         <v>338</v>
       </c>
       <c r="C315" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.2">
@@ -5101,7 +5122,7 @@
         <v>338</v>
       </c>
       <c r="C316" s="1" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
     </row>
     <row r="317" spans="1:3" x14ac:dyDescent="0.2">
@@ -5112,7 +5133,7 @@
         <v>338</v>
       </c>
       <c r="C317" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="318" spans="1:3" x14ac:dyDescent="0.2">
@@ -5123,7 +5144,7 @@
         <v>338</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="319" spans="1:3" x14ac:dyDescent="0.2">
@@ -5134,7 +5155,7 @@
         <v>338</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="320" spans="1:3" x14ac:dyDescent="0.2">
@@ -5145,7 +5166,7 @@
         <v>338</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.2">
@@ -5153,10 +5174,10 @@
         <v>301</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.2">
@@ -5164,10 +5185,10 @@
         <v>301</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C322" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.2">
@@ -5175,10 +5196,10 @@
         <v>301</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C323" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.2">
@@ -5186,10 +5207,10 @@
         <v>301</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C324" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.2">
@@ -5197,10 +5218,10 @@
         <v>301</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="C325" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.2">
@@ -5211,7 +5232,7 @@
         <v>301</v>
       </c>
       <c r="C326" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.2">
@@ -5222,7 +5243,7 @@
         <v>301</v>
       </c>
       <c r="C327" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.2">
@@ -5233,7 +5254,7 @@
         <v>301</v>
       </c>
       <c r="C328" s="1" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.2">
@@ -5244,7 +5265,7 @@
         <v>301</v>
       </c>
       <c r="C329" s="1" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.2">
@@ -5255,7 +5276,7 @@
         <v>301</v>
       </c>
       <c r="C330" s="1" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.2">
@@ -5266,7 +5287,7 @@
         <v>301</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.2">
@@ -5274,10 +5295,10 @@
         <v>301</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.2">
@@ -5285,10 +5306,10 @@
         <v>301</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.2">
@@ -5296,10 +5317,10 @@
         <v>301</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.2">
@@ -5307,10 +5328,10 @@
         <v>301</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.2">
@@ -5318,10 +5339,10 @@
         <v>301</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="337" spans="1:3" x14ac:dyDescent="0.2">
@@ -5332,7 +5353,7 @@
         <v>365</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
     </row>
     <row r="338" spans="1:3" x14ac:dyDescent="0.2">
@@ -5343,6 +5364,61 @@
         <v>365</v>
       </c>
       <c r="C338" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A339" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B339" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C339" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A340" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B340" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C340" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A341" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B341" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C341" s="1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A342" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B342" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C342" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B343" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>372</v>
       </c>
     </row>
